--- a/biology/Microbiologie/Chlamydodontidae/Chlamydodontidae.xlsx
+++ b/biology/Microbiologie/Chlamydodontidae/Chlamydodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlamydodontidae sont une famille de Ciliés de la classe des Cyrtophoria et de l’ordre des Chlamydodontida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Chlamydodon, composé du préfixe chlamy- « cape, manteau » (du grec χλαμυ / chlamy, « qui porte une chlamyde », un manteau porté en Grèce antique), et de -odon (du grec ancien ὀδών / odōn, dent), littéralement «  manteau denté ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 décembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 décembre 2022) :
 Chlamidodon
 Chlamydodon Ehrenberg, 1835 genre type
 Cyrtophoron Deroux, 1975
@@ -576,10 +592,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Chlamydodontidae Stein, 1859[2].
-Kahl (1931) rapproche cette famille de celle des Nassulidae de Fromentel, 1874[3], dans laquelle il met notamment le genre Chilodontopsis  Blochmann, 1895 (depuis dans la famille des Scaphidiodontidae).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Chlamydodontidae Stein, 1859.
+Kahl (1931) rapproche cette famille de celle des Nassulidae de Fromentel, 1874, dans laquelle il met notamment le genre Chilodontopsis  Blochmann, 1895 (depuis dans la famille des Scaphidiodontidae).
 </t>
         </is>
       </c>
